--- a/Assets/InventorySystem/ItemList.xlsx
+++ b/Assets/InventorySystem/ItemList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Temp\Assets\InventorySystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Game\Assets\InventorySystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17612872-8C35-4703-A546-46EB38866BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C3AF3-D2E7-470E-ACDD-792CE0C44468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{B8A861BF-9B69-4B49-9D61-416FA830DC60}"/>
+    <workbookView xWindow="8560" yWindow="1070" windowWidth="17680" windowHeight="8380" xr2:uid="{B8A861BF-9B69-4B49-9D61-416FA830DC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,18 +95,12 @@
     <t>card_wpr</t>
   </si>
   <si>
-    <t>Icon/0</t>
-  </si>
-  <si>
     <t>오토메틱 이온소총</t>
   </si>
   <si>
     <t>이온화에너지를 통해 전자를 가속해 발사하는 가벼운 소총</t>
   </si>
   <si>
-    <t>Icon/1</t>
-  </si>
-  <si>
     <t>보급형 중화기</t>
   </si>
   <si>
@@ -334,6 +328,308 @@
   </si>
   <si>
     <t>card_su</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/ItemIcon_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우주선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드키</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음방으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열쇠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보안상의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이유로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>난독화되버려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없게된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Card_wp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Card_su</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Card_sp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -342,9 +638,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +688,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +704,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -424,13 +727,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,16 +754,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,6 +774,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CB8408-00FD-49A9-966A-A1F2B94CBEC1}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -865,7 +1188,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3">
         <v>16</v>
@@ -883,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -896,7 +1219,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H3" s="3">
         <v>16</v>
@@ -914,10 +1237,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -926,7 +1249,9 @@
         <v>50</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H4" s="5">
         <v>16</v>
       </c>
@@ -943,19 +1268,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="5">
         <v>50</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H5" s="5">
         <v>16</v>
       </c>
@@ -972,10 +1299,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -984,7 +1311,9 @@
         <v>50</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" s="5">
         <v>16</v>
       </c>
@@ -1001,19 +1330,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
         <v>500</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H7" s="5">
         <v>8</v>
       </c>
@@ -1030,19 +1361,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5">
         <v>25</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="5">
         <v>16</v>
       </c>
@@ -1057,19 +1390,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5">
         <v>100</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H9" s="5">
         <v>16</v>
       </c>
@@ -1084,19 +1419,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>500</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="5">
         <v>16</v>
       </c>
@@ -1113,13 +1450,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -1140,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
@@ -1167,13 +1504,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5">
         <v>500</v>
@@ -1187,6 +1524,26 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="64" x14ac:dyDescent="0.45">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/InventorySystem/ItemList.xlsx
+++ b/Assets/InventorySystem/ItemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Game\Assets\InventorySystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C3AF3-D2E7-470E-ACDD-792CE0C44468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F2E4B3-7108-4296-A07E-DDC8279E3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1070" windowWidth="17680" windowHeight="8380" xr2:uid="{B8A861BF-9B69-4B49-9D61-416FA830DC60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B8A861BF-9B69-4B49-9D61-416FA830DC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,6 +630,98 @@
   </si>
   <si>
     <t>Icon/Card_sp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베터리</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복사할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,14 +867,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CB8408-00FD-49A9-966A-A1F2B94CBEC1}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1546,6 +1647,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
